--- a/data-raw/little.splitblock.xlsx
+++ b/data-raw/little.splitblock.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70556BCC-3BF5-4689-A3FC-FB20565494EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="12" windowWidth="15168" windowHeight="7776"/>
+    <workbookView xWindow="4260" yWindow="3220" windowWidth="7590" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +21,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -69,14 +71,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -114,7 +119,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -186,7 +191,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -359,19 +364,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="20" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>26.4</v>
       </c>
@@ -433,7 +438,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>31.2</v>
       </c>
@@ -495,7 +500,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>28</v>
       </c>
@@ -557,7 +562,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>10.1</v>
       </c>
@@ -625,19 +630,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="20" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>29</v>
       </c>
@@ -699,7 +704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>29</v>
       </c>
@@ -761,7 +766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>29</v>
       </c>
@@ -823,7 +828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>29</v>
       </c>
@@ -891,19 +896,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="20" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>80</v>
       </c>
@@ -965,7 +970,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>320</v>
       </c>
@@ -1027,7 +1032,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>160</v>
       </c>
@@ -1089,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
